--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Аленький цветочек</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>Цена (руб)</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>рублей</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Цена в рублях</t>
   </si>
 </sst>
 </file>
@@ -70,8 +100,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -153,18 +192,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
@@ -485,15 +533,15 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
         <v>44951</v>
@@ -529,10 +577,10 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>300</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <f>C5*$C$3</f>
         <v>9450</v>
       </c>
@@ -544,10 +592,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>100</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <f t="shared" ref="D6:D11" si="0">C6*$C$3</f>
         <v>3150</v>
       </c>
@@ -559,10 +607,10 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>50</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>1575</v>
       </c>
@@ -574,10 +622,10 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>400</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
@@ -589,10 +637,10 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>1200</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>37800</v>
       </c>
@@ -604,10 +652,10 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>700</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>22050</v>
       </c>
@@ -619,10 +667,10 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>200</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>6300</v>
       </c>
@@ -638,13 +686,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1350</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3*$B$1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="14">
+        <v>450</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C7" si="0">B4*$B$1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1180</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>79650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="14">
+        <v>780</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14">
+        <v>560</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
